--- a/data/selection.xlsx
+++ b/data/selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF73EAE-C185-124A-9632-4DC9E7833DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749724F-EC09-1546-884A-2AF3E48466A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27520" windowHeight="16880" xr2:uid="{DD431388-A649-974D-BC91-F74D914CF5BC}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27520" windowHeight="16880" activeTab="1" xr2:uid="{DD431388-A649-974D-BC91-F74D914CF5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F2AD36-8359-5A46-946E-1BAB27B764B7}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1726,7 +1726,7 @@
         <v>1512</v>
       </c>
       <c r="K2" s="3">
-        <f>(G2+H2)/J2</f>
+        <f t="shared" ref="K2:K22" si="0">(G2+H2)/J2</f>
         <v>0.7321428571428571</v>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
         <v>512</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G22" si="0">D3+E3+F3</f>
+        <f t="shared" ref="G3:G22" si="1">D3+E3+F3</f>
         <v>1020</v>
       </c>
       <c r="H3">
@@ -1763,7 +1763,7 @@
         <v>1434</v>
       </c>
       <c r="K3" s="3">
-        <f>(G3+H3)/J3</f>
+        <f t="shared" si="0"/>
         <v>0.72942817294281725</v>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
         <v>571</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="H4">
@@ -1800,7 +1800,7 @@
         <v>1560</v>
       </c>
       <c r="K4" s="3">
-        <f>(G4+H4)/J4</f>
+        <f t="shared" si="0"/>
         <v>0.71666666666666667</v>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
         <v>519</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1075</v>
       </c>
       <c r="H5">
@@ -1837,7 +1837,7 @@
         <v>1551</v>
       </c>
       <c r="K5" s="3">
-        <f>(G5+H5)/J5</f>
+        <f t="shared" si="0"/>
         <v>0.70921985815602839</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>514</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1032</v>
       </c>
       <c r="H6">
@@ -1874,7 +1874,7 @@
         <v>1457</v>
       </c>
       <c r="K6" s="3">
-        <f>(G6+H6)/J6</f>
+        <f t="shared" si="0"/>
         <v>0.7227179135209334</v>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
         <v>505</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>979</v>
       </c>
       <c r="H7">
@@ -1911,7 +1911,7 @@
         <v>1292</v>
       </c>
       <c r="K7" s="3">
-        <f>(G7+H7)/J7</f>
+        <f t="shared" si="0"/>
         <v>0.76702786377708976</v>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
         <v>595</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1161</v>
       </c>
       <c r="H8">
@@ -1948,7 +1948,7 @@
         <v>1618</v>
       </c>
       <c r="K8" s="3">
-        <f>(G8+H8)/J8</f>
+        <f t="shared" si="0"/>
         <v>0.73300370828182937</v>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
         <v>665</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1195</v>
       </c>
       <c r="H9">
@@ -1985,7 +1985,7 @@
         <v>1552</v>
       </c>
       <c r="K9" s="3">
-        <f>(G9+H9)/J9</f>
+        <f t="shared" si="0"/>
         <v>0.78543814432989689</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>563</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="H10">
@@ -2022,7 +2022,7 @@
         <v>1410</v>
       </c>
       <c r="K10" s="3">
-        <f>(G10+H10)/J10</f>
+        <f t="shared" si="0"/>
         <v>0.73475177304964534</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
         <v>563</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1036</v>
       </c>
       <c r="H11">
@@ -2059,7 +2059,7 @@
         <v>1424</v>
       </c>
       <c r="K11" s="3">
-        <f>(G11+H11)/J11</f>
+        <f t="shared" si="0"/>
         <v>0.7408707865168539</v>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>610</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1201</v>
       </c>
       <c r="H12">
@@ -2096,7 +2096,7 @@
         <v>1605</v>
       </c>
       <c r="K12" s="3">
-        <f>(G12+H12)/J12</f>
+        <f t="shared" si="0"/>
         <v>0.76261682242990658</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         <v>497</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1166</v>
       </c>
       <c r="H13">
@@ -2133,7 +2133,7 @@
         <v>1632</v>
       </c>
       <c r="K13" s="3">
-        <f>(G13+H13)/J13</f>
+        <f t="shared" si="0"/>
         <v>0.7279411764705882</v>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
         <v>603</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1219</v>
       </c>
       <c r="H14">
@@ -2170,7 +2170,7 @@
         <v>1615</v>
       </c>
       <c r="K14" s="3">
-        <f>(G14+H14)/J14</f>
+        <f t="shared" si="0"/>
         <v>0.77089783281733748</v>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>646</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1279</v>
       </c>
       <c r="H15">
@@ -2207,7 +2207,7 @@
         <v>1697</v>
       </c>
       <c r="K15" s="3">
-        <f>(G15+H15)/J15</f>
+        <f t="shared" si="0"/>
         <v>0.76664702416028285</v>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
         <v>432</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>927</v>
       </c>
       <c r="H16">
@@ -2244,7 +2244,7 @@
         <v>1331</v>
       </c>
       <c r="K16" s="3">
-        <f>(G16+H16)/J16</f>
+        <f t="shared" si="0"/>
         <v>0.70548459804658148</v>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
         <v>501</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1066</v>
       </c>
       <c r="H17">
@@ -2281,7 +2281,7 @@
         <v>1466</v>
       </c>
       <c r="K17" s="3">
-        <f>(G17+H17)/J17</f>
+        <f t="shared" si="0"/>
         <v>0.74215552523874484</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
         <v>547</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="H18">
@@ -2318,7 +2318,7 @@
         <v>1495</v>
       </c>
       <c r="K18" s="3">
-        <f>(G18+H18)/J18</f>
+        <f t="shared" si="0"/>
         <v>0.71438127090301007</v>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
         <v>462</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1001</v>
       </c>
       <c r="H19">
@@ -2355,7 +2355,7 @@
         <v>1415</v>
       </c>
       <c r="K19" s="3">
-        <f>(G19+H19)/J19</f>
+        <f t="shared" si="0"/>
         <v>0.72084805653710249</v>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
         <v>783</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1442</v>
       </c>
       <c r="H20">
@@ -2392,7 +2392,7 @@
         <v>1918</v>
       </c>
       <c r="K20" s="3">
-        <f>(G20+H20)/J20</f>
+        <f t="shared" si="0"/>
         <v>0.76381647549530762</v>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
         <v>764</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1379</v>
       </c>
       <c r="H21">
@@ -2429,7 +2429,7 @@
         <v>1942</v>
       </c>
       <c r="K21" s="3">
-        <f>(G21+H21)/J21</f>
+        <f t="shared" si="0"/>
         <v>0.72245108135942326</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
         <v>721</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1332</v>
       </c>
       <c r="H22">
@@ -2466,7 +2466,7 @@
         <v>1844</v>
       </c>
       <c r="K22" s="3">
-        <f>(G22+H22)/J22</f>
+        <f t="shared" si="0"/>
         <v>0.73806941431670281</v>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BD814-1D49-9649-BFB3-271FFDFAF85D}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/data/selection.xlsx
+++ b/data/selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749724F-EC09-1546-884A-2AF3E48466A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5467D35E-E7C4-FC4F-9D4F-B903485D6FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27520" windowHeight="16880" activeTab="1" xr2:uid="{DD431388-A649-974D-BC91-F74D914CF5BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,6 +673,558 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                <a:ea typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" sz="2400">
+                <a:latin typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                <a:ea typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+              </a:rPr>
+              <a:t>桃園第一選區選舉支持率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+              <a:ea typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5D23-7744-AEFE-2304BE9F36D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5D23-7744-AEFE-2304BE9F36D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5D23-7744-AEFE-2304BE9F36D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                      <a:ea typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5D23-7744-AEFE-2304BE9F36D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                      <a:ea typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5D23-7744-AEFE-2304BE9F36D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                      <a:ea typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5D23-7744-AEFE-2304BE9F36D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                    <a:ea typeface="BiauKaiTC Regular" panose="03000500000000000000" pitchFamily="66" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表3!$B$37:$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>馬治薇</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>鄭運鵬</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>牛煦庭</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表3!$B$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.5599999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D23-7744-AEFE-2304BE9F36D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -706,6 +1262,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
   <cs:axisTitle>
@@ -1295,6 +1891,574 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1340,6 +2504,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746678AB-D8E6-2CA1-9BE0-6A15F5CC6221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2478,10 +3678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BD814-1D49-9649-BFB3-271FFDFAF85D}">
-  <dimension ref="B2:L30"/>
+  <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2598,6 +3798,45 @@
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
     </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20600</v>
+      </c>
+      <c r="C39" s="2">
+        <v>103466</v>
+      </c>
+      <c r="D39" s="2">
+        <v>116571</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/selection.xlsx
+++ b/data/selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5467D35E-E7C4-FC4F-9D4F-B903485D6FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAB689-AD09-DA4A-A6FC-658DE6DECB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27520" windowHeight="16880" activeTab="1" xr2:uid="{DD431388-A649-974D-BC91-F74D914CF5BC}"/>
   </bookViews>
@@ -1193,9 +1193,34 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -3680,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BD814-1D49-9649-BFB3-271FFDFAF85D}">
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
